--- a/backend-code/Participants.xlsx
+++ b/backend-code/Participants.xlsx
@@ -20,30 +20,348 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
-  <si>
-    <t xml:space="preserve">team name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">roll number </t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="114">
+  <si>
+    <t xml:space="preserve">Team Name:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Roll Number:</t>
   </si>
   <si>
     <t xml:space="preserve">password</t>
   </si>
   <si>
-    <t xml:space="preserve">Team 1 </t>
+    <t xml:space="preserve">Email ID: (NITK.EDU)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Biz_mavericks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">201MN059</t>
   </si>
   <si>
     <t xml:space="preserve">pwd</t>
   </si>
   <si>
-    <t xml:space="preserve">Team 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">151sq133</t>
+    <t xml:space="preserve">swarnabhasinha.201mn059@nitk.edu.in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pythoneers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">201MT041</t>
   </si>
   <si>
     <t xml:space="preserve">pwd23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protyushroy.201mt041@nitk.edu.in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AVIRAL VINIT </t>
+  </si>
+  <si>
+    <t xml:space="preserve">201ME309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aviralvinit.201me309@nitk.edu.in </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gigahz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">201EC216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chethanreddy.201ec216@nitk.edu.in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sub Zero</t>
+  </si>
+  <si>
+    <t xml:space="preserve">201ee118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Darshan.201ee118@nitk.edu.in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tesseract</t>
+  </si>
+  <si>
+    <t xml:space="preserve">201ec263</t>
+  </si>
+  <si>
+    <t xml:space="preserve">suhas.201ec263@nitk.edu.in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alpha-Q</t>
+  </si>
+  <si>
+    <t xml:space="preserve">191EE133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">meet.191ee133@nitk.edu.in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Team Fire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">201IT249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rishipjain.201it249@nitk.edu.in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Supreme_Enigma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">191EC111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">balajinaidu.191ec111@nitk.edu.in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blabla</t>
+  </si>
+  <si>
+    <t xml:space="preserve">201IT149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ravindranathgautam.201it149@nitk.edu.in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Akatsuki</t>
+  </si>
+  <si>
+    <t xml:space="preserve">201ME125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kbpramod.201me125@nitk.edu.in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When does Sky Rise</t>
+  </si>
+  <si>
+    <t xml:space="preserve">201EE264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vedikagadia.201ee264@nitk.edu.in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Technocrats</t>
+  </si>
+  <si>
+    <t xml:space="preserve">191EC101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adithiupadhya.191ec101@nitk.edu.in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sky_Is_Blue </t>
+  </si>
+  <si>
+    <t xml:space="preserve">191CS201 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">abhinav.191cs201@nitk.edu.in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dark pirates</t>
+  </si>
+  <si>
+    <t xml:space="preserve">191EC253</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sudeshgowdaj.191ec253@nitk.edu.in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mavericks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">191EE209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bhaskaraadityasriram.191ee209@nitk.edu.in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parmanu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">201ME156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">siddhnarhari.201me156@nitk.edu.in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blazing Mechies</t>
+  </si>
+  <si>
+    <t xml:space="preserve">201ME106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adityabilgundi.201me106@nitk.edu.in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Team Joke?!!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">201EC251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">racheetvatsa.201ec251@nitk.edu.in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BBgirl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">191EE117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fouzantinwala.191ee117@nitk.edu.in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entropy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">191ee219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Navyakollipara.191ee219@nitk.edu.in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hitesh team</t>
+  </si>
+  <si>
+    <t xml:space="preserve">201me140</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pathulothuhiteshrathod.201me140@nitk.edu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bill joined Tinder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">191EC116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">diveshsakhuja.191ec116@nitk.edu.in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NAVCOM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">191ME190</t>
+  </si>
+  <si>
+    <t xml:space="preserve">naveenkumar.191me190@nitk.edu.in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Erbiton </t>
+  </si>
+  <si>
+    <t xml:space="preserve">201MN063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vishalmankare.201mn063@nitk.edu.in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AKM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">201me229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kishlaysingh.201me229@nitk.edu.in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N/A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">201ME108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ameymaheshwari.201me108@nitk.edu.in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Koid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">201it128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kaustubhk.201it128@nitk.edu.in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">StrawHat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">201EE108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ankushsingh.201ee108@nitk.edu.in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shivani YS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">201ME353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shivaniys. 201me353@nitk.edu.in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Incendium</t>
+  </si>
+  <si>
+    <t xml:space="preserve">191EC102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">akashskyashgmailcom.191ec102@nitk.edu.in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">201MN035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nharikrishna.201mn035@nitk.edu.in </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Team_Bot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">191CS235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">praneethg.191cs235@nitk.edu.in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quark</t>
+  </si>
+  <si>
+    <t xml:space="preserve">191ME263</t>
+  </si>
+  <si>
+    <t xml:space="preserve">maheshraina.191me263@nitk.edu.in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Three Braincells</t>
+  </si>
+  <si>
+    <t xml:space="preserve">191EC152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sougat.191ec152@nitk.edu.in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">scam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">201CS254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sathvikhebbar.201cs254@nitk.edu.in</t>
   </si>
 </sst>
 </file>
@@ -119,8 +437,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -141,50 +467,934 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:D137"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="topLeft" activeCell="H23" activeCellId="0" sqref="H23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.47"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="42.88"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+    <row r="1" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="0" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="0" t="n">
-        <v>18121312321</v>
+    </row>
+    <row r="2" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="D2" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="C3" s="0" t="s">
-        <v>7</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="2"/>
+      <c r="B38" s="2"/>
+      <c r="D38" s="2"/>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="2"/>
+      <c r="B39" s="2"/>
+      <c r="D39" s="2"/>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="2"/>
+      <c r="B40" s="2"/>
+      <c r="D40" s="2"/>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="2"/>
+      <c r="B41" s="2"/>
+      <c r="D41" s="2"/>
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="2"/>
+      <c r="B42" s="2"/>
+      <c r="D42" s="2"/>
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="2"/>
+      <c r="B43" s="2"/>
+      <c r="D43" s="2"/>
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="2"/>
+      <c r="B44" s="2"/>
+      <c r="D44" s="2"/>
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="2"/>
+      <c r="B45" s="2"/>
+      <c r="D45" s="2"/>
+    </row>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="2"/>
+      <c r="B46" s="2"/>
+      <c r="D46" s="2"/>
+    </row>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="2"/>
+      <c r="B47" s="2"/>
+      <c r="D47" s="2"/>
+    </row>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="2"/>
+      <c r="B48" s="2"/>
+      <c r="D48" s="2"/>
+    </row>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="2"/>
+      <c r="B49" s="2"/>
+      <c r="D49" s="2"/>
+    </row>
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="2"/>
+      <c r="B50" s="2"/>
+      <c r="D50" s="2"/>
+    </row>
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="2"/>
+      <c r="B51" s="2"/>
+      <c r="D51" s="2"/>
+    </row>
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="2"/>
+      <c r="B52" s="2"/>
+      <c r="D52" s="2"/>
+    </row>
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="2"/>
+      <c r="B53" s="2"/>
+      <c r="D53" s="2"/>
+    </row>
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="2"/>
+      <c r="B54" s="2"/>
+      <c r="D54" s="2"/>
+    </row>
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="2"/>
+      <c r="B55" s="2"/>
+      <c r="D55" s="2"/>
+    </row>
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="2"/>
+      <c r="B56" s="2"/>
+      <c r="D56" s="2"/>
+    </row>
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="2"/>
+      <c r="B57" s="2"/>
+      <c r="D57" s="2"/>
+    </row>
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="2"/>
+      <c r="B58" s="2"/>
+      <c r="D58" s="2"/>
+    </row>
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="2"/>
+      <c r="B59" s="2"/>
+      <c r="D59" s="2"/>
+    </row>
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="2"/>
+      <c r="B60" s="2"/>
+      <c r="D60" s="2"/>
+    </row>
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="2"/>
+      <c r="B61" s="2"/>
+      <c r="D61" s="2"/>
+    </row>
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="2"/>
+      <c r="B62" s="2"/>
+      <c r="D62" s="2"/>
+    </row>
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="2"/>
+      <c r="B63" s="2"/>
+      <c r="D63" s="2"/>
+    </row>
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="2"/>
+      <c r="B64" s="2"/>
+      <c r="D64" s="2"/>
+    </row>
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="2"/>
+      <c r="B65" s="2"/>
+      <c r="D65" s="2"/>
+    </row>
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="2"/>
+      <c r="B66" s="2"/>
+      <c r="D66" s="2"/>
+    </row>
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="2"/>
+      <c r="B67" s="2"/>
+      <c r="D67" s="2"/>
+    </row>
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="2"/>
+      <c r="B68" s="2"/>
+      <c r="D68" s="2"/>
+    </row>
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="2"/>
+      <c r="B69" s="2"/>
+      <c r="D69" s="2"/>
+    </row>
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="2"/>
+      <c r="B70" s="2"/>
+      <c r="D70" s="2"/>
+    </row>
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="2"/>
+      <c r="B71" s="2"/>
+      <c r="D71" s="2"/>
+    </row>
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="2"/>
+      <c r="B72" s="2"/>
+      <c r="D72" s="2"/>
+    </row>
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="2"/>
+      <c r="B73" s="2"/>
+      <c r="D73" s="2"/>
+    </row>
+    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="2"/>
+      <c r="B74" s="2"/>
+      <c r="D74" s="2"/>
+    </row>
+    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="2"/>
+      <c r="B75" s="2"/>
+      <c r="D75" s="2"/>
+    </row>
+    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="2"/>
+      <c r="B76" s="2"/>
+      <c r="D76" s="2"/>
+    </row>
+    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="2"/>
+      <c r="B77" s="2"/>
+      <c r="D77" s="2"/>
+    </row>
+    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="2"/>
+      <c r="B78" s="2"/>
+      <c r="D78" s="2"/>
+    </row>
+    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="2"/>
+      <c r="B79" s="2"/>
+      <c r="D79" s="2"/>
+    </row>
+    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="2"/>
+      <c r="B80" s="2"/>
+      <c r="D80" s="2"/>
+    </row>
+    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="2"/>
+      <c r="B81" s="2"/>
+      <c r="D81" s="2"/>
+    </row>
+    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="2"/>
+      <c r="B82" s="2"/>
+      <c r="D82" s="2"/>
+    </row>
+    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="2"/>
+      <c r="B83" s="2"/>
+      <c r="D83" s="2"/>
+    </row>
+    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="2"/>
+      <c r="B84" s="2"/>
+      <c r="D84" s="2"/>
+    </row>
+    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="2"/>
+      <c r="B85" s="2"/>
+      <c r="D85" s="2"/>
+    </row>
+    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="2"/>
+      <c r="B86" s="2"/>
+      <c r="D86" s="2"/>
+    </row>
+    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="2"/>
+      <c r="B87" s="2"/>
+      <c r="D87" s="2"/>
+    </row>
+    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="2"/>
+      <c r="B88" s="2"/>
+      <c r="D88" s="2"/>
+    </row>
+    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="2"/>
+      <c r="B89" s="2"/>
+      <c r="D89" s="2"/>
+    </row>
+    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="2"/>
+      <c r="B90" s="2"/>
+      <c r="D90" s="2"/>
+    </row>
+    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="2"/>
+      <c r="B91" s="2"/>
+      <c r="D91" s="2"/>
+    </row>
+    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="2"/>
+      <c r="B92" s="2"/>
+      <c r="D92" s="2"/>
+    </row>
+    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="2"/>
+      <c r="B93" s="2"/>
+      <c r="D93" s="2"/>
+    </row>
+    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="2"/>
+      <c r="B94" s="2"/>
+      <c r="D94" s="2"/>
+    </row>
+    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="2"/>
+      <c r="B95" s="2"/>
+      <c r="D95" s="2"/>
+    </row>
+    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="2"/>
+      <c r="B96" s="2"/>
+      <c r="D96" s="2"/>
+    </row>
+    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="2"/>
+      <c r="B97" s="2"/>
+      <c r="D97" s="2"/>
+    </row>
+    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="2"/>
+      <c r="B98" s="2"/>
+      <c r="D98" s="2"/>
+    </row>
+    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="2"/>
+      <c r="B99" s="2"/>
+      <c r="D99" s="2"/>
+    </row>
+    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="2"/>
+      <c r="B100" s="2"/>
+      <c r="D100" s="2"/>
+    </row>
+    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="2"/>
+      <c r="B101" s="2"/>
+      <c r="D101" s="2"/>
+    </row>
+    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="2"/>
+      <c r="B102" s="2"/>
+      <c r="D102" s="2"/>
+    </row>
+    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="2"/>
+      <c r="B103" s="2"/>
+      <c r="D103" s="2"/>
+    </row>
+    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="2"/>
+      <c r="B104" s="2"/>
+      <c r="D104" s="2"/>
+    </row>
+    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="2"/>
+      <c r="B105" s="2"/>
+      <c r="D105" s="2"/>
+    </row>
+    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="2"/>
+      <c r="B106" s="2"/>
+      <c r="D106" s="2"/>
+    </row>
+    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="2"/>
+      <c r="B107" s="2"/>
+      <c r="D107" s="2"/>
+    </row>
+    <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="2"/>
+      <c r="B108" s="2"/>
+      <c r="D108" s="2"/>
+    </row>
+    <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="2"/>
+      <c r="B109" s="2"/>
+      <c r="D109" s="2"/>
+    </row>
+    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="2"/>
+      <c r="B110" s="2"/>
+      <c r="D110" s="2"/>
+    </row>
+    <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="2"/>
+      <c r="B111" s="2"/>
+      <c r="D111" s="2"/>
+    </row>
+    <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="2"/>
+      <c r="B112" s="2"/>
+      <c r="D112" s="2"/>
+    </row>
+    <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="2"/>
+      <c r="B113" s="2"/>
+      <c r="D113" s="2"/>
+    </row>
+    <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="2"/>
+      <c r="B114" s="2"/>
+      <c r="D114" s="2"/>
+    </row>
+    <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="2"/>
+      <c r="B115" s="2"/>
+      <c r="D115" s="2"/>
+    </row>
+    <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="2"/>
+      <c r="B116" s="2"/>
+      <c r="D116" s="2"/>
+    </row>
+    <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="2"/>
+      <c r="B117" s="2"/>
+      <c r="D117" s="2"/>
+    </row>
+    <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="2"/>
+      <c r="B118" s="2"/>
+      <c r="D118" s="2"/>
+    </row>
+    <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="2"/>
+      <c r="B119" s="2"/>
+      <c r="D119" s="2"/>
+    </row>
+    <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="2"/>
+      <c r="B120" s="2"/>
+      <c r="D120" s="2"/>
+    </row>
+    <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="2"/>
+      <c r="B121" s="2"/>
+      <c r="D121" s="2"/>
+    </row>
+    <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="2"/>
+      <c r="B122" s="2"/>
+      <c r="D122" s="2"/>
+    </row>
+    <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="2"/>
+      <c r="B123" s="2"/>
+      <c r="D123" s="2"/>
+    </row>
+    <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="2"/>
+      <c r="B124" s="2"/>
+      <c r="D124" s="2"/>
+    </row>
+    <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A125" s="2"/>
+      <c r="B125" s="2"/>
+      <c r="D125" s="2"/>
+    </row>
+    <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="2"/>
+      <c r="B126" s="2"/>
+      <c r="D126" s="2"/>
+    </row>
+    <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="2"/>
+      <c r="B127" s="2"/>
+      <c r="D127" s="2"/>
+    </row>
+    <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A128" s="2"/>
+      <c r="B128" s="2"/>
+      <c r="D128" s="2"/>
+    </row>
+    <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="2"/>
+      <c r="B129" s="2"/>
+      <c r="D129" s="2"/>
+    </row>
+    <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A130" s="2"/>
+      <c r="B130" s="2"/>
+      <c r="D130" s="2"/>
+    </row>
+    <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A131" s="2"/>
+      <c r="B131" s="2"/>
+      <c r="D131" s="2"/>
+    </row>
+    <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A132" s="2"/>
+      <c r="B132" s="2"/>
+      <c r="D132" s="2"/>
+    </row>
+    <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A133" s="2"/>
+      <c r="B133" s="2"/>
+      <c r="D133" s="2"/>
+    </row>
+    <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A134" s="2"/>
+      <c r="B134" s="2"/>
+      <c r="D134" s="2"/>
+    </row>
+    <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A135" s="2"/>
+      <c r="B135" s="2"/>
+      <c r="D135" s="2"/>
+    </row>
+    <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A136" s="2"/>
+      <c r="B136" s="2"/>
+      <c r="D136" s="2"/>
+    </row>
+    <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A137" s="2"/>
+      <c r="B137" s="2"/>
+      <c r="D137" s="2"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/backend-code/Participants.xlsx
+++ b/backend-code/Participants.xlsx
@@ -5,10 +5,11 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="117">
   <si>
     <t xml:space="preserve">Team Name:</t>
   </si>
@@ -362,6 +363,15 @@
   </si>
   <si>
     <t xml:space="preserve">sathvikhebbar.201cs254@nitk.edu.in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">abcdefghijklmnopqrstuvwxyz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">171IT108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aditya.171co105@nitk.edu.in</t>
   </si>
 </sst>
 </file>
@@ -469,15 +479,15 @@
   </sheetPr>
   <dimension ref="A1:D137"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H23" activeCellId="0" sqref="H23"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A32" activeCellId="0" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="42.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="42.87"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1405,4 +1415,733 @@
     <oddFooter/>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D137"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="42.87"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="D3" s="1"/>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="D4" s="1"/>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="D5" s="1"/>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="D15" s="1"/>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="D16" s="1"/>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="D17" s="1"/>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="D18" s="1"/>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="D19" s="1"/>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="D20" s="1"/>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="D21" s="1"/>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="D22" s="1"/>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="D23" s="1"/>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="D24" s="1"/>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="D25" s="1"/>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="D26" s="1"/>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="D27" s="1"/>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="D28" s="1"/>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="D29" s="1"/>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="D30" s="1"/>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="D31" s="1"/>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="D32" s="1"/>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="D33" s="1"/>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="D34" s="1"/>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="D35" s="1"/>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="D36" s="1"/>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+      <c r="D37" s="1"/>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="2"/>
+      <c r="B38" s="2"/>
+      <c r="D38" s="2"/>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="2"/>
+      <c r="B39" s="2"/>
+      <c r="D39" s="2"/>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="2"/>
+      <c r="B40" s="2"/>
+      <c r="D40" s="2"/>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="2"/>
+      <c r="B41" s="2"/>
+      <c r="D41" s="2"/>
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="2"/>
+      <c r="B42" s="2"/>
+      <c r="D42" s="2"/>
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="2"/>
+      <c r="B43" s="2"/>
+      <c r="D43" s="2"/>
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="2"/>
+      <c r="B44" s="2"/>
+      <c r="D44" s="2"/>
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="2"/>
+      <c r="B45" s="2"/>
+      <c r="D45" s="2"/>
+    </row>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="2"/>
+      <c r="B46" s="2"/>
+      <c r="D46" s="2"/>
+    </row>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="2"/>
+      <c r="B47" s="2"/>
+      <c r="D47" s="2"/>
+    </row>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="2"/>
+      <c r="B48" s="2"/>
+      <c r="D48" s="2"/>
+    </row>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="2"/>
+      <c r="B49" s="2"/>
+      <c r="D49" s="2"/>
+    </row>
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="2"/>
+      <c r="B50" s="2"/>
+      <c r="D50" s="2"/>
+    </row>
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="2"/>
+      <c r="B51" s="2"/>
+      <c r="D51" s="2"/>
+    </row>
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="2"/>
+      <c r="B52" s="2"/>
+      <c r="D52" s="2"/>
+    </row>
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="2"/>
+      <c r="B53" s="2"/>
+      <c r="D53" s="2"/>
+    </row>
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="2"/>
+      <c r="B54" s="2"/>
+      <c r="D54" s="2"/>
+    </row>
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="2"/>
+      <c r="B55" s="2"/>
+      <c r="D55" s="2"/>
+    </row>
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="2"/>
+      <c r="B56" s="2"/>
+      <c r="D56" s="2"/>
+    </row>
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="2"/>
+      <c r="B57" s="2"/>
+      <c r="D57" s="2"/>
+    </row>
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="2"/>
+      <c r="B58" s="2"/>
+      <c r="D58" s="2"/>
+    </row>
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="2"/>
+      <c r="B59" s="2"/>
+      <c r="D59" s="2"/>
+    </row>
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="2"/>
+      <c r="B60" s="2"/>
+      <c r="D60" s="2"/>
+    </row>
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="2"/>
+      <c r="B61" s="2"/>
+      <c r="D61" s="2"/>
+    </row>
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="2"/>
+      <c r="B62" s="2"/>
+      <c r="D62" s="2"/>
+    </row>
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="2"/>
+      <c r="B63" s="2"/>
+      <c r="D63" s="2"/>
+    </row>
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="2"/>
+      <c r="B64" s="2"/>
+      <c r="D64" s="2"/>
+    </row>
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="2"/>
+      <c r="B65" s="2"/>
+      <c r="D65" s="2"/>
+    </row>
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="2"/>
+      <c r="B66" s="2"/>
+      <c r="D66" s="2"/>
+    </row>
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="2"/>
+      <c r="B67" s="2"/>
+      <c r="D67" s="2"/>
+    </row>
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="2"/>
+      <c r="B68" s="2"/>
+      <c r="D68" s="2"/>
+    </row>
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="2"/>
+      <c r="B69" s="2"/>
+      <c r="D69" s="2"/>
+    </row>
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="2"/>
+      <c r="B70" s="2"/>
+      <c r="D70" s="2"/>
+    </row>
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="2"/>
+      <c r="B71" s="2"/>
+      <c r="D71" s="2"/>
+    </row>
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="2"/>
+      <c r="B72" s="2"/>
+      <c r="D72" s="2"/>
+    </row>
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="2"/>
+      <c r="B73" s="2"/>
+      <c r="D73" s="2"/>
+    </row>
+    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="2"/>
+      <c r="B74" s="2"/>
+      <c r="D74" s="2"/>
+    </row>
+    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="2"/>
+      <c r="B75" s="2"/>
+      <c r="D75" s="2"/>
+    </row>
+    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="2"/>
+      <c r="B76" s="2"/>
+      <c r="D76" s="2"/>
+    </row>
+    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="2"/>
+      <c r="B77" s="2"/>
+      <c r="D77" s="2"/>
+    </row>
+    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="2"/>
+      <c r="B78" s="2"/>
+      <c r="D78" s="2"/>
+    </row>
+    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="2"/>
+      <c r="B79" s="2"/>
+      <c r="D79" s="2"/>
+    </row>
+    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="2"/>
+      <c r="B80" s="2"/>
+      <c r="D80" s="2"/>
+    </row>
+    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="2"/>
+      <c r="B81" s="2"/>
+      <c r="D81" s="2"/>
+    </row>
+    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="2"/>
+      <c r="B82" s="2"/>
+      <c r="D82" s="2"/>
+    </row>
+    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="2"/>
+      <c r="B83" s="2"/>
+      <c r="D83" s="2"/>
+    </row>
+    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="2"/>
+      <c r="B84" s="2"/>
+      <c r="D84" s="2"/>
+    </row>
+    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="2"/>
+      <c r="B85" s="2"/>
+      <c r="D85" s="2"/>
+    </row>
+    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="2"/>
+      <c r="B86" s="2"/>
+      <c r="D86" s="2"/>
+    </row>
+    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="2"/>
+      <c r="B87" s="2"/>
+      <c r="D87" s="2"/>
+    </row>
+    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="2"/>
+      <c r="B88" s="2"/>
+      <c r="D88" s="2"/>
+    </row>
+    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="2"/>
+      <c r="B89" s="2"/>
+      <c r="D89" s="2"/>
+    </row>
+    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="2"/>
+      <c r="B90" s="2"/>
+      <c r="D90" s="2"/>
+    </row>
+    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="2"/>
+      <c r="B91" s="2"/>
+      <c r="D91" s="2"/>
+    </row>
+    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="2"/>
+      <c r="B92" s="2"/>
+      <c r="D92" s="2"/>
+    </row>
+    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="2"/>
+      <c r="B93" s="2"/>
+      <c r="D93" s="2"/>
+    </row>
+    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="2"/>
+      <c r="B94" s="2"/>
+      <c r="D94" s="2"/>
+    </row>
+    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="2"/>
+      <c r="B95" s="2"/>
+      <c r="D95" s="2"/>
+    </row>
+    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="2"/>
+      <c r="B96" s="2"/>
+      <c r="D96" s="2"/>
+    </row>
+    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="2"/>
+      <c r="B97" s="2"/>
+      <c r="D97" s="2"/>
+    </row>
+    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="2"/>
+      <c r="B98" s="2"/>
+      <c r="D98" s="2"/>
+    </row>
+    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="2"/>
+      <c r="B99" s="2"/>
+      <c r="D99" s="2"/>
+    </row>
+    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="2"/>
+      <c r="B100" s="2"/>
+      <c r="D100" s="2"/>
+    </row>
+    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="2"/>
+      <c r="B101" s="2"/>
+      <c r="D101" s="2"/>
+    </row>
+    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="2"/>
+      <c r="B102" s="2"/>
+      <c r="D102" s="2"/>
+    </row>
+    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="2"/>
+      <c r="B103" s="2"/>
+      <c r="D103" s="2"/>
+    </row>
+    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="2"/>
+      <c r="B104" s="2"/>
+      <c r="D104" s="2"/>
+    </row>
+    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="2"/>
+      <c r="B105" s="2"/>
+      <c r="D105" s="2"/>
+    </row>
+    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="2"/>
+      <c r="B106" s="2"/>
+      <c r="D106" s="2"/>
+    </row>
+    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="2"/>
+      <c r="B107" s="2"/>
+      <c r="D107" s="2"/>
+    </row>
+    <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="2"/>
+      <c r="B108" s="2"/>
+      <c r="D108" s="2"/>
+    </row>
+    <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="2"/>
+      <c r="B109" s="2"/>
+      <c r="D109" s="2"/>
+    </row>
+    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="2"/>
+      <c r="B110" s="2"/>
+      <c r="D110" s="2"/>
+    </row>
+    <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="2"/>
+      <c r="B111" s="2"/>
+      <c r="D111" s="2"/>
+    </row>
+    <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="2"/>
+      <c r="B112" s="2"/>
+      <c r="D112" s="2"/>
+    </row>
+    <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="2"/>
+      <c r="B113" s="2"/>
+      <c r="D113" s="2"/>
+    </row>
+    <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="2"/>
+      <c r="B114" s="2"/>
+      <c r="D114" s="2"/>
+    </row>
+    <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="2"/>
+      <c r="B115" s="2"/>
+      <c r="D115" s="2"/>
+    </row>
+    <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="2"/>
+      <c r="B116" s="2"/>
+      <c r="D116" s="2"/>
+    </row>
+    <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="2"/>
+      <c r="B117" s="2"/>
+      <c r="D117" s="2"/>
+    </row>
+    <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="2"/>
+      <c r="B118" s="2"/>
+      <c r="D118" s="2"/>
+    </row>
+    <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="2"/>
+      <c r="B119" s="2"/>
+      <c r="D119" s="2"/>
+    </row>
+    <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="2"/>
+      <c r="B120" s="2"/>
+      <c r="D120" s="2"/>
+    </row>
+    <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="2"/>
+      <c r="B121" s="2"/>
+      <c r="D121" s="2"/>
+    </row>
+    <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="2"/>
+      <c r="B122" s="2"/>
+      <c r="D122" s="2"/>
+    </row>
+    <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="2"/>
+      <c r="B123" s="2"/>
+      <c r="D123" s="2"/>
+    </row>
+    <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="2"/>
+      <c r="B124" s="2"/>
+      <c r="D124" s="2"/>
+    </row>
+    <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A125" s="2"/>
+      <c r="B125" s="2"/>
+      <c r="D125" s="2"/>
+    </row>
+    <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="2"/>
+      <c r="B126" s="2"/>
+      <c r="D126" s="2"/>
+    </row>
+    <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="2"/>
+      <c r="B127" s="2"/>
+      <c r="D127" s="2"/>
+    </row>
+    <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A128" s="2"/>
+      <c r="B128" s="2"/>
+      <c r="D128" s="2"/>
+    </row>
+    <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="2"/>
+      <c r="B129" s="2"/>
+      <c r="D129" s="2"/>
+    </row>
+    <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A130" s="2"/>
+      <c r="B130" s="2"/>
+      <c r="D130" s="2"/>
+    </row>
+    <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A131" s="2"/>
+      <c r="B131" s="2"/>
+      <c r="D131" s="2"/>
+    </row>
+    <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A132" s="2"/>
+      <c r="B132" s="2"/>
+      <c r="D132" s="2"/>
+    </row>
+    <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A133" s="2"/>
+      <c r="B133" s="2"/>
+      <c r="D133" s="2"/>
+    </row>
+    <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A134" s="2"/>
+      <c r="B134" s="2"/>
+      <c r="D134" s="2"/>
+    </row>
+    <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A135" s="2"/>
+      <c r="B135" s="2"/>
+      <c r="D135" s="2"/>
+    </row>
+    <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A136" s="2"/>
+      <c r="B136" s="2"/>
+      <c r="D136" s="2"/>
+    </row>
+    <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A137" s="2"/>
+      <c r="B137" s="2"/>
+      <c r="D137" s="2"/>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>